--- a/natmiOut/OldD2/LR-pairs_lrc2p/Bdnf-Ntrk2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Bdnf-Ntrk2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -91,7 +94,10 @@
     <t>FAPs</t>
   </si>
   <si>
-    <t>Neutro</t>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>2.47231337258245</v>
+        <v>0.08140533333333333</v>
       </c>
       <c r="H2">
-        <v>2.47231337258245</v>
+        <v>0.244216</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.02119526060933596</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.03145949481834748</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.141148546269524</v>
+        <v>0.4046295</v>
       </c>
       <c r="N2">
-        <v>0.141148546269524</v>
+        <v>0.8092590000000001</v>
       </c>
       <c r="O2">
-        <v>0.01382348802344027</v>
+        <v>0.03591080321622319</v>
       </c>
       <c r="P2">
-        <v>0.01382348802344027</v>
+        <v>0.02861811729998201</v>
       </c>
       <c r="Q2">
-        <v>0.3489634384627169</v>
+        <v>0.032938999324</v>
       </c>
       <c r="R2">
-        <v>0.3489634384627169</v>
+        <v>0.197633995944</v>
       </c>
       <c r="S2">
-        <v>0.01382348802344027</v>
+        <v>0.0007611388328584306</v>
       </c>
       <c r="T2">
-        <v>0.01382348802344027</v>
+        <v>0.0009003115129096445</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>2.47231337258245</v>
+        <v>0.08140533333333333</v>
       </c>
       <c r="H3">
-        <v>2.47231337258245</v>
+        <v>0.244216</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.02119526060933596</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.03145949481834748</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.01620141302701</v>
+        <v>5.268343000000001</v>
       </c>
       <c r="N3">
-        <v>5.01620141302701</v>
+        <v>15.805029</v>
       </c>
       <c r="O3">
-        <v>0.4912654220592199</v>
+        <v>0.4675645961269926</v>
       </c>
       <c r="P3">
-        <v>0.4912654220592199</v>
+        <v>0.5589189293558889</v>
       </c>
       <c r="Q3">
-        <v>12.40162183299366</v>
+        <v>0.4288712180293334</v>
       </c>
       <c r="R3">
-        <v>12.40162183299366</v>
+        <v>3.859840962264</v>
       </c>
       <c r="S3">
-        <v>0.4912654220592199</v>
+        <v>0.009910153466610524</v>
       </c>
       <c r="T3">
-        <v>0.4912654220592199</v>
+        <v>0.01758330716194791</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>2.47231337258245</v>
+        <v>0.08140533333333333</v>
       </c>
       <c r="H4">
-        <v>2.47231337258245</v>
+        <v>0.244216</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.02119526060933596</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.03145949481834748</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.176229448511953</v>
+        <v>0.007945333333333334</v>
       </c>
       <c r="N4">
-        <v>0.176229448511953</v>
+        <v>0.023836</v>
       </c>
       <c r="O4">
-        <v>0.01725916231705786</v>
+        <v>0.0007051470587800246</v>
       </c>
       <c r="P4">
-        <v>0.01725916231705786</v>
+        <v>0.0008429210474796958</v>
       </c>
       <c r="Q4">
-        <v>0.4356944221989317</v>
+        <v>0.0006467925084444444</v>
       </c>
       <c r="R4">
-        <v>0.4356944221989317</v>
+        <v>0.005821132576</v>
       </c>
       <c r="S4">
-        <v>0.01725916231705786</v>
+        <v>1.494577567874937E-05</v>
       </c>
       <c r="T4">
-        <v>0.01725916231705786</v>
+        <v>2.651787032546352E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +714,557 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.08140533333333333</v>
+      </c>
+      <c r="H5">
+        <v>0.244216</v>
+      </c>
+      <c r="I5">
+        <v>0.02119526060933596</v>
+      </c>
+      <c r="J5">
+        <v>0.03145949481834748</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.002973333333333333</v>
+      </c>
+      <c r="N5">
+        <v>0.008920000000000001</v>
+      </c>
+      <c r="O5">
+        <v>0.0002638828563650704</v>
+      </c>
+      <c r="P5">
+        <v>0.0003154411706460349</v>
+      </c>
+      <c r="Q5">
+        <v>0.0002420451911111111</v>
+      </c>
+      <c r="R5">
+        <v>0.00217840672</v>
+      </c>
+      <c r="S5">
+        <v>5.593065910993637E-06</v>
+      </c>
+      <c r="T5">
+        <v>9.923619873432399E-06</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.08140533333333333</v>
+      </c>
+      <c r="H6">
+        <v>0.244216</v>
+      </c>
+      <c r="I6">
+        <v>0.02119526060933596</v>
+      </c>
+      <c r="J6">
+        <v>0.03145949481834748</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.4633423333333333</v>
+      </c>
+      <c r="N6">
+        <v>1.390027</v>
+      </c>
+      <c r="O6">
+        <v>0.04112155775611769</v>
+      </c>
+      <c r="P6">
+        <v>0.04915602512439415</v>
+      </c>
+      <c r="Q6">
+        <v>0.03771853709244444</v>
+      </c>
+      <c r="R6">
+        <v>0.3394668338319999</v>
+      </c>
+      <c r="S6">
+        <v>0.0008715821333027749</v>
+      </c>
+      <c r="T6">
+        <v>0.001546423717691437</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.08140533333333333</v>
+      </c>
+      <c r="H7">
+        <v>0.244216</v>
+      </c>
+      <c r="I7">
+        <v>0.02119526060933596</v>
+      </c>
+      <c r="J7">
+        <v>0.03145949481834748</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>5.120392499999999</v>
+      </c>
+      <c r="N7">
+        <v>10.240785</v>
+      </c>
+      <c r="O7">
+        <v>0.4544340129855215</v>
+      </c>
+      <c r="P7">
+        <v>0.3621485660016092</v>
+      </c>
+      <c r="Q7">
+        <v>0.4168272582599999</v>
+      </c>
+      <c r="R7">
+        <v>2.50096354956</v>
+      </c>
+      <c r="S7">
+        <v>0.009631847334974492</v>
+      </c>
+      <c r="T7">
+        <v>0.01139301093559959</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>3.7593275</v>
+      </c>
+      <c r="H8">
+        <v>7.518655000000001</v>
+      </c>
+      <c r="I8">
+        <v>0.9788047393906639</v>
+      </c>
+      <c r="J8">
+        <v>0.9685405051816526</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.4046295</v>
+      </c>
+      <c r="N8">
+        <v>0.8092590000000001</v>
+      </c>
+      <c r="O8">
+        <v>0.03591080321622319</v>
+      </c>
+      <c r="P8">
+        <v>0.02861811729998201</v>
+      </c>
+      <c r="Q8">
+        <v>1.52113480666125</v>
+      </c>
+      <c r="R8">
+        <v>6.084539226645001</v>
+      </c>
+      <c r="S8">
+        <v>0.03514966438336475</v>
+      </c>
+      <c r="T8">
+        <v>0.02771780578707237</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>3.7593275</v>
+      </c>
+      <c r="H9">
+        <v>7.518655000000001</v>
+      </c>
+      <c r="I9">
+        <v>0.9788047393906639</v>
+      </c>
+      <c r="J9">
+        <v>0.9685405051816526</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>5.268343000000001</v>
+      </c>
+      <c r="N9">
+        <v>15.805029</v>
+      </c>
+      <c r="O9">
+        <v>0.4675645961269926</v>
+      </c>
+      <c r="P9">
+        <v>0.5589189293558889</v>
+      </c>
+      <c r="Q9">
+        <v>19.80542671933251</v>
+      </c>
+      <c r="R9">
+        <v>118.832560315995</v>
+      </c>
+      <c r="S9">
+        <v>0.457654442660382</v>
+      </c>
+      <c r="T9">
+        <v>0.541335622193941</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>3.7593275</v>
+      </c>
+      <c r="H10">
+        <v>7.518655000000001</v>
+      </c>
+      <c r="I10">
+        <v>0.9788047393906639</v>
+      </c>
+      <c r="J10">
+        <v>0.9685405051816526</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.007945333333333334</v>
+      </c>
+      <c r="N10">
+        <v>0.023836</v>
+      </c>
+      <c r="O10">
+        <v>0.0007051470587800246</v>
+      </c>
+      <c r="P10">
+        <v>0.0008429210474796958</v>
+      </c>
+      <c r="Q10">
+        <v>0.02986911009666667</v>
+      </c>
+      <c r="R10">
+        <v>0.17921466058</v>
+      </c>
+      <c r="S10">
+        <v>0.0006902012831012752</v>
+      </c>
+      <c r="T10">
+        <v>0.0008164031771542323</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>3.7593275</v>
+      </c>
+      <c r="H11">
+        <v>7.518655000000001</v>
+      </c>
+      <c r="I11">
+        <v>0.9788047393906639</v>
+      </c>
+      <c r="J11">
+        <v>0.9685405051816526</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.002973333333333333</v>
+      </c>
+      <c r="N11">
+        <v>0.008920000000000001</v>
+      </c>
+      <c r="O11">
+        <v>0.0002638828563650704</v>
+      </c>
+      <c r="P11">
+        <v>0.0003154411706460349</v>
+      </c>
+      <c r="Q11">
+        <v>0.01117773376666667</v>
+      </c>
+      <c r="R11">
+        <v>0.06706640260000002</v>
+      </c>
+      <c r="S11">
+        <v>0.0002582897904540768</v>
+      </c>
+      <c r="T11">
+        <v>0.0003055175507726025</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
         <v>20</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>2.47231337258245</v>
-      </c>
-      <c r="H5">
-        <v>2.47231337258245</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>4.87719706410516</v>
-      </c>
-      <c r="N5">
-        <v>4.87719706410516</v>
-      </c>
-      <c r="O5">
-        <v>0.477651927600282</v>
-      </c>
-      <c r="P5">
-        <v>0.477651927600282</v>
-      </c>
-      <c r="Q5">
-        <v>12.05795952230705</v>
-      </c>
-      <c r="R5">
-        <v>12.05795952230705</v>
-      </c>
-      <c r="S5">
-        <v>0.477651927600282</v>
-      </c>
-      <c r="T5">
-        <v>0.477651927600282</v>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>3.7593275</v>
+      </c>
+      <c r="H12">
+        <v>7.518655000000001</v>
+      </c>
+      <c r="I12">
+        <v>0.9788047393906639</v>
+      </c>
+      <c r="J12">
+        <v>0.9685405051816526</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.4633423333333333</v>
+      </c>
+      <c r="N12">
+        <v>1.390027</v>
+      </c>
+      <c r="O12">
+        <v>0.04112155775611769</v>
+      </c>
+      <c r="P12">
+        <v>0.04915602512439415</v>
+      </c>
+      <c r="Q12">
+        <v>1.741855575614167</v>
+      </c>
+      <c r="R12">
+        <v>10.451133453685</v>
+      </c>
+      <c r="S12">
+        <v>0.0402499756228149</v>
+      </c>
+      <c r="T12">
+        <v>0.04760960140670272</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>3.7593275</v>
+      </c>
+      <c r="H13">
+        <v>7.518655000000001</v>
+      </c>
+      <c r="I13">
+        <v>0.9788047393906639</v>
+      </c>
+      <c r="J13">
+        <v>0.9685405051816526</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>5.120392499999999</v>
+      </c>
+      <c r="N13">
+        <v>10.240785</v>
+      </c>
+      <c r="O13">
+        <v>0.4544340129855215</v>
+      </c>
+      <c r="P13">
+        <v>0.3621485660016092</v>
+      </c>
+      <c r="Q13">
+        <v>19.24923233604375</v>
+      </c>
+      <c r="R13">
+        <v>76.996929344175</v>
+      </c>
+      <c r="S13">
+        <v>0.444802165650547</v>
+      </c>
+      <c r="T13">
+        <v>0.3507555550660096</v>
       </c>
     </row>
   </sheetData>
